--- a/Paulo Henrique Preciliano SAEP.xlsx
+++ b/Paulo Henrique Preciliano SAEP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SAEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47903305832\Documents\Saep\Saeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9AF22F-2AE2-49A7-AEC5-646B3032E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0482F-2F96-4842-8A1E-034ED583816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>LISTA DE VERIFICAÇÃO – Técnico em Desenvolvimento de Sistemas</t>
   </si>
@@ -497,7 +497,16 @@
     <t>Dicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Repositório do GitHub: </t>
+    <t>Paulo Henrique Preciliano da Silva</t>
+  </si>
+  <si>
+    <t>479.033.058-32</t>
+  </si>
+  <si>
+    <t>Repositório do GitHub: https://github.com/ppfuark/SAEP-2025.git</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -755,6 +764,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,65 +830,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,37 +1249,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="30"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1298,15 +1311,15 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="43"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1341,10 +1354,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1359,7 +1372,9 @@
       <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8"/>
       <c r="J9" s="15" t="s">
@@ -1367,8 +1382,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1381,7 +1396,9 @@
       <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="11" t="s">
@@ -1389,12 +1406,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1403,47 +1420,53 @@
       <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="38" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1452,7 +1475,9 @@
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
       <c r="J14" s="17" t="s">
@@ -1460,29 +1485,31 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1491,37 +1518,43 @@
       <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
       <c r="J18" s="18" t="s">
@@ -1529,47 +1562,53 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
@@ -1577,55 +1616,61 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="31"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1633,29 +1678,33 @@
         <v>122</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="7" t="s">
         <v>69</v>
       </c>
@@ -1663,29 +1712,33 @@
         <v>120</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1693,29 +1746,33 @@
         <v>72</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="7" t="s">
         <v>75</v>
       </c>
@@ -1723,52 +1780,60 @@
         <v>76</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="31"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
@@ -1776,16 +1841,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="38" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1794,32 +1859,36 @@
       <c r="F35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="25"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="22"/>
+      <c r="J36" s="41"/>
     </row>
     <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="7" t="s">
         <v>91</v>
       </c>
@@ -1832,20 +1901,22 @@
       <c r="F37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="22"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1854,45 +1925,51 @@
       <c r="F38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="22"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="22"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="25"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="22"/>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="7" t="s">
         <v>104</v>
       </c>
@@ -1908,13 +1985,15 @@
       <c r="F41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="22"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="3" t="s">
         <v>109</v>
       </c>
@@ -1930,10 +2009,12 @@
       <c r="F42" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="23"/>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
@@ -1997,13 +2078,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B37"/>
@@ -2014,11 +2093,13 @@
     <mergeCell ref="B16:B34"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
